--- a/data-raw/data_input/pak_indicator_descriptions/pak_indicator_descriptions.xlsx
+++ b/data-raw/data_input/pak_indicator_descriptions/pak_indicator_descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\pakEducationDashboard\pakEducationDashboard\data-raw\data_input\pak_indicator_descriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb499754\OneDrive - WBG\cross_support_projects\pakistan_education_app\pakEducationDashboard\data-raw\data_input\pak_indicator_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C352E6-2C6E-4436-95E6-DC9162D0D899}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0700506-3633-4DC6-8B4B-6B2C77F22C5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14220" xr2:uid="{0A71173F-3C8E-4177-BEA2-1E0C29D68A7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0A71173F-3C8E-4177-BEA2-1E0C29D68A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of children of primary school-age (ages 6-10) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This indicator is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_6_10_se </t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Share of children aged 11-16 curently enrolled in school</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of children of secondary school-age (ages 11-16) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_11_16_se </t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Share of boys aged 6-10 curently enrolled in school</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of boys of primary school-age (ages 6-10) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_boys_6_10_se </t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Share of boys aged 11-16 curently enrolled in school</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of boys of secondary school-age (ages 11-16) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_boys_11_16_se </t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>Share of girls aged 6-10 curently enrolled in school</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of girls of primary school-age (ages 6-10) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_girls_6_10_se </t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>Share of girls aged 11-16 curently enrolled in school</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of girls of secondary school-age (ages 11-16) currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">in_school_girls_11_16_se </t>
   </si>
   <si>
@@ -252,48 +234,27 @@
     <t xml:space="preserve">share_private_6_10 </t>
   </si>
   <si>
-    <t>Share of children (aged 6-10) in private schools, among those enrolled</t>
-  </si>
-  <si>
-    <t>Share of children of primary school-age (ages 6-10) enrolled in private school, among the total number of primary school-age (ages 6-10) children enrolled in schools.</t>
-  </si>
-  <si>
     <t xml:space="preserve">share_private_6_10_se </t>
   </si>
   <si>
     <t>Standard error for point estimate - share_private_6_10</t>
   </si>
   <si>
-    <t>The standard error for the indicator share of children (aged 6-10) in private schools, among those enrolled</t>
-  </si>
-  <si>
     <t xml:space="preserve">share_private_11_16 </t>
   </si>
   <si>
-    <t>Share of children (aged 11-16) in private schools, among those enrolled</t>
-  </si>
-  <si>
-    <t>Share of children of priamry school-age (ages 11-16) enrolled in private school, among the total number of secondary school-age (ages 11-16) children enrolled in schools.</t>
-  </si>
-  <si>
     <t xml:space="preserve">share_private_11_16_se </t>
   </si>
   <si>
     <t>Standard error for point estimate - share_private_11_16</t>
   </si>
   <si>
-    <t>The standard error for the indicator share of children (aged 11-16) in private schools, among those enrolled</t>
-  </si>
-  <si>
     <t xml:space="preserve">literacy_12_18 </t>
   </si>
   <si>
     <t>Share of adolescents who are literate (self-reported)</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of all adolescents (ages 12-18) who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t>literacy_12_18_se</t>
   </si>
   <si>
@@ -309,9 +270,6 @@
     <t>Share of adolescents who are numerate (self-reported)</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of all adolescents (ages 12-18) who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">numeracy_12_18_se </t>
   </si>
   <si>
@@ -324,12 +282,6 @@
     <t xml:space="preserve">literacy_boys_12_18 </t>
   </si>
   <si>
-    <t>Share of adolescent boys (aged 12-18) who are literate (self-reported)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of all adolescents boys (ages 12-18) who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">literacy_boys_12_18_se </t>
   </si>
   <si>
@@ -342,12 +294,6 @@
     <t xml:space="preserve">numeracy_boys_12_18 </t>
   </si>
   <si>
-    <t>Share of adolescent boys (aged 12-18) who are numerate (self-reported)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of all adolescents boys (ages 12-18) who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t>numeracy_boys_12_18_se</t>
   </si>
   <si>
@@ -360,12 +306,6 @@
     <t xml:space="preserve">literacy_girls_12_18 </t>
   </si>
   <si>
-    <t>Share of adolescent girls (aged 12-18) who are literate (self-reported)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of all adolescents girls  (ages 12-18) who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">literacy_girls_12_18_se </t>
   </si>
   <si>
@@ -378,12 +318,6 @@
     <t xml:space="preserve">numeracy_girls_12_18 </t>
   </si>
   <si>
-    <t>Share of adolescent girls (aged 12-18) who are numerate (self-reported)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of all adolescents girls (ages 12-18) who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">numeracy_girls_12_18_se </t>
   </si>
   <si>
@@ -399,9 +333,6 @@
     <t>Share of children aged 9-11 who can read a basic paragraph</t>
   </si>
   <si>
-    <t>The share of all children (ages 9-11) who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">reading_9_11_se </t>
   </si>
   <si>
@@ -417,9 +348,6 @@
     <t>Share of children aged 9-11 who can do division</t>
   </si>
   <si>
-    <t>The share of all children (ages 9-11) who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">division_9_11_se </t>
   </si>
   <si>
@@ -435,9 +363,6 @@
     <t>Share of boys aged 9-11 who can read a basic paragraph</t>
   </si>
   <si>
-    <t>The share of boys (ages 9-11) who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t>reading_boys_9_11_se</t>
   </si>
   <si>
@@ -453,9 +378,6 @@
     <t>Share of boys aged 9-11 who can do division</t>
   </si>
   <si>
-    <t>The share of boys (ages 9-11) who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">division_boys_9_11_se </t>
   </si>
   <si>
@@ -471,9 +393,6 @@
     <t>Share of girls aged 9-11 who can read a basic paragraph</t>
   </si>
   <si>
-    <t>The share of girls (ages 9-11) who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">reading_girls_9_11_se </t>
   </si>
   <si>
@@ -489,9 +408,6 @@
     <t>Share of girls aged 9-11 who can do division</t>
   </si>
   <si>
-    <t>The share of girls (ages 9-11) who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">division_girls_9_11_se </t>
   </si>
   <si>
@@ -679,6 +595,90 @@
   </si>
   <si>
     <t>The standard error for the indicator correct letters per minute by female students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of children of aged 6-10 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This indicator is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of boys aged 6-10 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of boys aged 11-16 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of girls aged 6-10 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of girls aged 11-16 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t>Share of children aged 6-10 enrolled in private school, among the total number of primary school-age (ages 6-10) children enrolled in schools.</t>
+  </si>
+  <si>
+    <t>The standard error for the indicator share of children aged 6-10 in private schools, among those enrolled</t>
+  </si>
+  <si>
+    <t>Share of children aged 11-16 enrolled in private school, among the total number of secondary school-age (ages 11-16) children enrolled in schools.</t>
+  </si>
+  <si>
+    <t>The standard error for the indicator share of children aged 11-16 in private schools, among those enrolled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents aged 12-18 who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents aged 12-18 who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents boys aged 12-18 who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents boys aged 12-18 who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents girls aged 12-18 who self-report as literate and literacy here is the "ability to read a newspaper or write a simple sentence". This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of all adolescents girls aged 12-18 who self-report as numerate and numeracy here is the ability to "solve a simple mathematics question".This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t>The share of all children aged 9-11 who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t>The share of all children aged 9-11 who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t>The share of boys aged 9-11 who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t>The share of boys aged 9-11 who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t>The share of girls aged 9-11 who can read a basic paragraph in a local language. These paragraphs are in Urdu, Sindhi or Pashto, depending on the language spoken in the household. This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t>The share of girls aged 9-11 who can solve a simple division problem. These division problems are typically double digit divisions (e.g. 72 divided by 8). This is calculated from representative household data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of children aged 11-16 currently enrolled in school. Both drop-outs and those who never attended school are considered as not enrolled in school. This is calculated from representative household data. </t>
+  </si>
+  <si>
+    <t>Share of children aged 6-10 in private schools, among those enrolled</t>
+  </si>
+  <si>
+    <t>Share of children aged 11-16 in private schools, among those enrolled</t>
+  </si>
+  <si>
+    <t>Share of adolescent boys aged 12-18 who are literate (self-reported)</t>
+  </si>
+  <si>
+    <t>Share of adolescent boys aged 12-18 who are numerate (self-reported)</t>
+  </si>
+  <si>
+    <t>Share of adolescent girls aged 12-18 who are literate (self-reported)</t>
+  </si>
+  <si>
+    <t>Share of adolescent girls aged 12-18 who are numerate (self-reported)</t>
   </si>
 </sst>
 </file>
@@ -1096,12 +1096,15 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="96.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1165,7 +1168,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1347,7 +1350,7 @@
       </c>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1388,7 +1391,7 @@
       </c>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1452,7 +1455,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1497,25 +1500,25 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1542,15 +1545,15 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>17</v>
@@ -1559,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1587,25 +1590,25 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -1632,15 +1635,15 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -1649,7 +1652,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1677,24 +1680,24 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1722,15 +1725,15 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
@@ -1739,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1767,24 +1770,24 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1812,15 +1815,15 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1829,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1857,24 +1860,24 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1902,15 +1905,15 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -1919,7 +1922,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1947,24 +1950,24 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1992,15 +1995,15 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
@@ -2009,7 +2012,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2035,24 +2038,24 @@
       <c r="N22" s="11"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -2078,15 +2081,15 @@
       <c r="N23" s="11"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="341" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -2095,7 +2098,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -2121,24 +2124,24 @@
       <c r="N24" s="11"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -2164,15 +2167,15 @@
       <c r="N25" s="11"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>17</v>
@@ -2181,7 +2184,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -2203,24 +2206,24 @@
       <c r="N26" s="11"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -2242,15 +2245,15 @@
       <c r="N27" s="11"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="403" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>17</v>
@@ -2259,7 +2262,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -2281,24 +2284,24 @@
       <c r="N28" s="11"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2320,15 +2323,15 @@
       <c r="N29" s="11"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>17</v>
@@ -2337,7 +2340,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -2359,24 +2362,24 @@
       <c r="N30" s="11"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2398,15 +2401,15 @@
       <c r="N31" s="11"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>17</v>
@@ -2415,7 +2418,7 @@
         <v>36</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2437,24 +2440,24 @@
       <c r="N32" s="11"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2476,15 +2479,15 @@
       <c r="N33" s="11"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -2493,7 +2496,7 @@
         <v>36</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2515,24 +2518,24 @@
       <c r="N34" s="11"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2554,15 +2557,15 @@
       <c r="N35" s="11"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>17</v>
@@ -2571,7 +2574,7 @@
         <v>36</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2593,24 +2596,24 @@
       <c r="N36" s="11"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2632,15 +2635,15 @@
       <c r="N37" s="11"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>17</v>
@@ -2649,7 +2652,7 @@
         <v>36</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2669,24 +2672,24 @@
       <c r="N38" s="11"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2706,15 +2709,15 @@
       <c r="N39" s="11"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>17</v>
@@ -2723,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -2743,24 +2746,24 @@
       <c r="N40" s="11"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -2780,15 +2783,15 @@
       <c r="N41" s="11"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>17</v>
@@ -2797,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2817,24 +2820,24 @@
       <c r="N42" s="11"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -2854,15 +2857,15 @@
       <c r="N43" s="11"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>17</v>
@@ -2871,7 +2874,7 @@
         <v>36</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -2891,24 +2894,24 @@
       <c r="N44" s="11"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -2928,15 +2931,15 @@
       <c r="N45" s="11"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>17</v>
@@ -2945,7 +2948,7 @@
         <v>36</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -2965,24 +2968,24 @@
       <c r="N46" s="11"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -3002,15 +3005,15 @@
       <c r="N47" s="11"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>17</v>
@@ -3019,7 +3022,7 @@
         <v>36</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -3039,24 +3042,24 @@
       <c r="N48" s="11"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -3076,15 +3079,15 @@
       <c r="N49" s="11"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>17</v>
@@ -3093,7 +3096,7 @@
         <v>36</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
@@ -3111,24 +3114,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
@@ -3146,15 +3149,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>17</v>
@@ -3163,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
@@ -3181,24 +3184,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
@@ -3216,15 +3219,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>17</v>
@@ -3233,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
@@ -3251,24 +3254,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
@@ -3286,15 +3289,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>17</v>
@@ -3303,7 +3306,7 @@
         <v>36</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1">
@@ -3321,24 +3324,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
@@ -3356,15 +3359,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>17</v>
@@ -3373,7 +3376,7 @@
         <v>36</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1">
@@ -3391,24 +3394,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1">
@@ -3426,15 +3429,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>17</v>
@@ -3443,7 +3446,7 @@
         <v>36</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1">
@@ -3461,24 +3464,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1">
@@ -3496,15 +3499,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>17</v>
@@ -3513,7 +3516,7 @@
         <v>36</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1">
@@ -3531,24 +3534,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1">
@@ -3566,15 +3569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>17</v>
@@ -3583,7 +3586,7 @@
         <v>36</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
@@ -3601,24 +3604,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1">
@@ -3636,15 +3639,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>17</v>
@@ -3653,7 +3656,7 @@
         <v>36</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1">
@@ -3671,24 +3674,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1">
@@ -3706,15 +3709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>17</v>
@@ -3723,7 +3726,7 @@
         <v>36</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1">
@@ -3741,24 +3744,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1">
